--- a/chines.xlsx
+++ b/chines.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="28">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J335"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10276,6 +10276,1398 @@
         <v>0</v>
       </c>
     </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>17</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>6</v>
+      </c>
+      <c r="I336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>23</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+      <c r="I337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>19</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>6</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>3</v>
+      </c>
+      <c r="G340">
+        <v>4</v>
+      </c>
+      <c r="H340">
+        <v>4</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+      <c r="G341">
+        <v>3</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>3</v>
+      </c>
+      <c r="I342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>2</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>3</v>
+      </c>
+      <c r="I344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>2</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+      <c r="I346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>4</v>
+      </c>
+      <c r="I347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>4</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>7</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>25</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>4</v>
+      </c>
+      <c r="H349">
+        <v>3</v>
+      </c>
+      <c r="I349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>2</v>
+      </c>
+      <c r="H350">
+        <v>4</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>20</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>2</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>6</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>21</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>8</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>24</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>8</v>
+      </c>
+      <c r="I356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>3</v>
+      </c>
+      <c r="I357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+      <c r="I358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>6</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>6</v>
+      </c>
+      <c r="I360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>20</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>2</v>
+      </c>
+      <c r="H361">
+        <v>7</v>
+      </c>
+      <c r="I361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>6</v>
+      </c>
+      <c r="I362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>7</v>
+      </c>
+      <c r="I363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>3</v>
+      </c>
+      <c r="H364">
+        <v>8</v>
+      </c>
+      <c r="I364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>18</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>4</v>
+      </c>
+      <c r="I365">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>7</v>
+      </c>
+      <c r="I367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>15</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>5</v>
+      </c>
+      <c r="I368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>3</v>
+      </c>
+      <c r="H369">
+        <v>4</v>
+      </c>
+      <c r="I369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>13</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>3</v>
+      </c>
+      <c r="H371">
+        <v>3</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>22</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>2</v>
+      </c>
+      <c r="H372">
+        <v>2</v>
+      </c>
+      <c r="I372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>21</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>2</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>8</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>25</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>5</v>
+      </c>
+      <c r="H374">
+        <v>5</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>16</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>5</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>2</v>
+      </c>
+      <c r="I375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>15</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>3</v>
+      </c>
+      <c r="I377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>20</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>4</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>24</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>3</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>17</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381">
+        <v>3</v>
+      </c>
+      <c r="H381">
+        <v>6</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>10</v>
+      </c>
+      <c r="I382">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>3</v>
+      </c>
+      <c r="H383">
+        <v>5</v>
+      </c>
+      <c r="I383">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10283,7 +11675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13145,6 +14537,414 @@
         <v>18</v>
       </c>
     </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chines.xlsx
+++ b/chines.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="28">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11668,6 +11668,64 @@
         <v>10</v>
       </c>
     </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>4</v>
+      </c>
+      <c r="G384">
+        <v>2</v>
+      </c>
+      <c r="H384">
+        <v>7</v>
+      </c>
+      <c r="I384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+      <c r="G385">
+        <v>4</v>
+      </c>
+      <c r="H385">
+        <v>7</v>
+      </c>
+      <c r="I385">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11675,7 +11733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14945,6 +15003,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
